--- a/data/trans_dic/P3A_R1-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R1-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1562330783463302</v>
+        <v>0.154364467733135</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2395119089085549</v>
+        <v>0.2358480146773658</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2597579544417142</v>
+        <v>0.2540837135759516</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2027573158064636</v>
+        <v>0.2022663853428027</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.109961863342483</v>
+        <v>0.1090940348983666</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05697168836387235</v>
+        <v>0.05607348096994223</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09927543930252933</v>
+        <v>0.09742329761677967</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2014127049505338</v>
+        <v>0.2093443830465137</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1456623383913629</v>
+        <v>0.1406419496423638</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1590911024622067</v>
+        <v>0.1593664550220432</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1870541828594998</v>
+        <v>0.1916996748264781</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2147962376352095</v>
+        <v>0.2156688239996387</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2542809995804463</v>
+        <v>0.251909582208917</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3505566111843317</v>
+        <v>0.3480556134090502</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3712332425841252</v>
+        <v>0.3676080769887142</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2978280564370794</v>
+        <v>0.3027555949308663</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2020967517695526</v>
+        <v>0.1988323637954319</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1265551102504313</v>
+        <v>0.1285527724691415</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1855923904577163</v>
+        <v>0.1800376902446671</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2808618416873421</v>
+        <v>0.2916900906672478</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2125603116904059</v>
+        <v>0.213514211506794</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2289818320281942</v>
+        <v>0.2297695895302337</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2599252516520436</v>
+        <v>0.2598274613078455</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2763483605501767</v>
+        <v>0.2766473271260543</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2113178924698899</v>
+        <v>0.213137844547137</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2026449703735135</v>
+        <v>0.2061172810727018</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.250317155457078</v>
+        <v>0.2516946907414835</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3673115136401606</v>
+        <v>0.3686956841969287</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1118491653334499</v>
+        <v>0.1117746487928461</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1006499328791924</v>
+        <v>0.09982013152352454</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1262621641532794</v>
+        <v>0.1281413402480711</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.275988158106487</v>
+        <v>0.2777851822956678</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.172435803263357</v>
+        <v>0.1710421588152582</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1637443022481379</v>
+        <v>0.161050534992879</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1996223615484501</v>
+        <v>0.1976807159496499</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3297990773428731</v>
+        <v>0.3344963629507608</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2953073393806669</v>
+        <v>0.2967457254035264</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2807897995439274</v>
+        <v>0.2874460685552508</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.335128919330976</v>
+        <v>0.3342699896283216</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4744176273757745</v>
+        <v>0.4742288874476982</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1767324521629113</v>
+        <v>0.1740933222378815</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1655252158360534</v>
+        <v>0.1666930431567236</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1921416365868652</v>
+        <v>0.1917051261708338</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.345763744437203</v>
+        <v>0.3458387849654083</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2241058395624042</v>
+        <v>0.2223267366679257</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2146304828834165</v>
+        <v>0.2108946256090993</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2500932960364343</v>
+        <v>0.2519565314147134</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3965089158123508</v>
+        <v>0.3948359266029042</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1375827163995091</v>
+        <v>0.1423474658429673</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2122713765964802</v>
+        <v>0.2119359009671459</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.353675298602163</v>
+        <v>0.3542729701314044</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2780673792572528</v>
+        <v>0.2778958654916623</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05243664806886644</v>
+        <v>0.05280642299379849</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07325296691242487</v>
+        <v>0.07028959340002672</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1820946510685477</v>
+        <v>0.1784249311436472</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2516675040793954</v>
+        <v>0.2570815651728513</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1039576295045142</v>
+        <v>0.1061952478780313</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1499281011476384</v>
+        <v>0.1468789229597459</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.277985413492263</v>
+        <v>0.2773071917349291</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2750968625565069</v>
+        <v>0.2770494152913761</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2297735818098454</v>
+        <v>0.2355141742168504</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3057825824532304</v>
+        <v>0.3077384215348528</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4604137665845096</v>
+        <v>0.4589467828821659</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3734261345875068</v>
+        <v>0.3741774334424334</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1101815861369802</v>
+        <v>0.1128686896122077</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1471048887385162</v>
+        <v>0.1422846100680255</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2711303136280518</v>
+        <v>0.2678540067786591</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3327458786508681</v>
+        <v>0.338097865993503</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1593426657797581</v>
+        <v>0.1613195572902671</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2097962458435856</v>
+        <v>0.2074695390417887</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3466159565448626</v>
+        <v>0.3483081646723201</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3371343599553386</v>
+        <v>0.3421640833986129</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3183286546706969</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3165290183313187</v>
+        <v>0.3165290183313188</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1852342207529857</v>
@@ -1105,7 +1105,7 @@
         <v>0.2219355793661428</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2462988914374155</v>
+        <v>0.2462988914374154</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1638664967030826</v>
+        <v>0.1672304145347019</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2496195341288204</v>
+        <v>0.2509059665889817</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2695031554278035</v>
+        <v>0.2756649130128047</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2633526325693532</v>
+        <v>0.2596722857064228</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1495182148340872</v>
+        <v>0.1462120306828728</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09150182050372552</v>
+        <v>0.09747039189424339</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09827337621234618</v>
+        <v>0.09714365661636479</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1501081121245335</v>
+        <v>0.1498839918899596</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1667631457489762</v>
+        <v>0.1672855739148189</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1807866410561872</v>
+        <v>0.1831622148959114</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1923415436256753</v>
+        <v>0.1899855846871172</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.212245867672499</v>
+        <v>0.2139450023854592</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.252830257908895</v>
+        <v>0.2509964039913668</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3487420663891095</v>
+        <v>0.3486915267948815</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3674256818111082</v>
+        <v>0.3735419631133727</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3952497616908968</v>
+        <v>0.3873659261037881</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2257626381895689</v>
+        <v>0.2262091828919642</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.161815139430807</v>
+        <v>0.1676590944044133</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1684861711045078</v>
+        <v>0.1640461575903263</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2213628113262227</v>
+        <v>0.221382537542388</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.224697998683481</v>
+        <v>0.2273196750661138</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2406552159232588</v>
+        <v>0.2427778648631444</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2558367363068986</v>
+        <v>0.252806049582389</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2827689781429044</v>
+        <v>0.2831569833845382</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.3626726147188067</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2345253843237588</v>
+        <v>0.2345253843237587</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1067692648897073</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.156919752853183</v>
+        <v>0.1495304664516904</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1374591541139417</v>
+        <v>0.1356739337452103</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2975140878242603</v>
+        <v>0.297348910030885</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1836405599403028</v>
+        <v>0.1869838066915432</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06784653314958548</v>
+        <v>0.07109296229065466</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1046085088417824</v>
+        <v>0.1083575673592</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1391669257593122</v>
+        <v>0.1408150568509642</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1903928175341014</v>
+        <v>0.187391509154055</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1208945715414606</v>
+        <v>0.1244736914034802</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1369355470922635</v>
+        <v>0.1338924468322669</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2345953459603137</v>
+        <v>0.2307634393218257</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.201778021480967</v>
+        <v>0.1976744536142339</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2655337161569307</v>
+        <v>0.2657744015351342</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2537467246967657</v>
+        <v>0.24647974301007</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4242005051087402</v>
+        <v>0.4316845045108105</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2889149963135039</v>
+        <v>0.292302996845315</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1567337658394968</v>
+        <v>0.1608617514435101</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2019087527735838</v>
+        <v>0.2064131371212931</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2409629901656799</v>
+        <v>0.2396014005637972</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.267280703835331</v>
+        <v>0.2628019478625335</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1945255366530769</v>
+        <v>0.2001457277581488</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2058357646186576</v>
+        <v>0.2078056134921185</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3145949285410086</v>
+        <v>0.3141885859521225</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2640376470145175</v>
+        <v>0.2563524575560175</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.2520816799042628</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.4067369038499555</v>
+        <v>0.4067369038499554</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.1293197699171089</v>
@@ -1365,7 +1365,7 @@
         <v>0.1160414749140972</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3672957031435493</v>
+        <v>0.3672957031435491</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1523040128095621</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1339916798556189</v>
+        <v>0.1368204916003786</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2466828570521784</v>
+        <v>0.2452486827311249</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2033086276441072</v>
+        <v>0.1966405454222579</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3573224464058345</v>
+        <v>0.3519886411710366</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.09409502287807045</v>
+        <v>0.09418669251132486</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1413016107807736</v>
+        <v>0.1431219635569571</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.07998731902390198</v>
+        <v>0.08160991569789723</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.321692315936598</v>
+        <v>0.325049860348145</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.122418466331965</v>
+        <v>0.1240826090533161</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.203003418582531</v>
+        <v>0.2084699208361829</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1492415335922314</v>
+        <v>0.1503585702809023</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3514568809382813</v>
+        <v>0.3505129340204464</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2302253683288966</v>
+        <v>0.227340682763972</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3619901486300786</v>
+        <v>0.3598897947604645</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3042731085109698</v>
+        <v>0.3075460041785263</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4668022706328105</v>
+        <v>0.460938481076507</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1758057664983569</v>
+        <v>0.1722575838856479</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2373926311407985</v>
+        <v>0.2325780390016373</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1580213146661703</v>
+        <v>0.1606576765976693</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4174221248464578</v>
+        <v>0.418209086607601</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1837161360375686</v>
+        <v>0.1849000269522599</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2816755752506364</v>
+        <v>0.2817267329913475</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2201434575199407</v>
+        <v>0.2190831323301985</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4211254023599094</v>
+        <v>0.4228785022993</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.260048257611158</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2605319583896758</v>
+        <v>0.2605319583896759</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1992078801125933</v>
+        <v>0.2043181732299215</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2374184859423373</v>
+        <v>0.2411460717127476</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2518678079442256</v>
+        <v>0.2595305154453965</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2554011348071264</v>
+        <v>0.2550339187702392</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.08331610072195987</v>
+        <v>0.0833631304689674</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1485459008706513</v>
+        <v>0.1473390096469818</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1997283113053829</v>
+        <v>0.2003000231640202</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2005993850461956</v>
+        <v>0.2034121784091506</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1503890335935437</v>
+        <v>0.1503430438712603</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2013601484609812</v>
+        <v>0.2047071161287151</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2381869054792105</v>
+        <v>0.2346488767009938</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2396701448471428</v>
+        <v>0.2369218939024593</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2688883524804886</v>
+        <v>0.2714483431841331</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3136835650228192</v>
+        <v>0.3113739208598796</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3271513002621925</v>
+        <v>0.3325262822325251</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3321326248212934</v>
+        <v>0.3291922273398638</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1314862677124747</v>
+        <v>0.1312999794464719</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2105825038514196</v>
+        <v>0.2093447922177582</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2647837822784757</v>
+        <v>0.2641152170438433</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2560972807490208</v>
+        <v>0.2586407065618826</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1935295343656069</v>
+        <v>0.1944834699886027</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2495329328494111</v>
+        <v>0.2518544605601596</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2857887172391003</v>
+        <v>0.285222180859557</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2836565978399685</v>
+        <v>0.281570250759664</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1582080131602334</v>
+        <v>0.1585476211478717</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2688834261660411</v>
+        <v>0.2678719736775324</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3239186825492938</v>
+        <v>0.3234298985118073</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1452983091649955</v>
+        <v>0.145407749057339</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.07435071045733248</v>
+        <v>0.07697980094088368</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1468175843207868</v>
+        <v>0.1448410829755814</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1904419526558842</v>
+        <v>0.1884059684259737</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.03862404448791043</v>
+        <v>0.03945013257799047</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1225627141528644</v>
+        <v>0.1213300456417516</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2110203922513546</v>
+        <v>0.213000768668421</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2641484369394368</v>
+        <v>0.2655844973019536</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.09496076486797932</v>
+        <v>0.09419064201759234</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2140362185450957</v>
+        <v>0.2159972664798903</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3343842751831313</v>
+        <v>0.3355438042801608</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3940704531481024</v>
+        <v>0.3943899757813029</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2032711216098082</v>
+        <v>0.2006311916317771</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1164959201884001</v>
+        <v>0.1175304893483316</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2012880859130102</v>
+        <v>0.2017609871431116</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2460349683526415</v>
+        <v>0.2466092508832705</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.06362104006935827</v>
+        <v>0.0651537955087122</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1582290652851663</v>
+        <v>0.1589454516249323</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2576014533818156</v>
+        <v>0.2560542313687612</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3109105971271292</v>
+        <v>0.3101506590872173</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1262004805434052</v>
+        <v>0.1256973841811655</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1958365641918809</v>
+        <v>0.1952843169248216</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2595883940237142</v>
+        <v>0.2591049138428248</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3074225567402411</v>
+        <v>0.3081243214715554</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2737202525738075</v>
+        <v>0.2746993481724714</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.109053060470199</v>
+        <v>0.1090973331414669</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1357421046586758</v>
+        <v>0.1368470848236479</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1724319472236243</v>
+        <v>0.1725699404750387</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2007411011141239</v>
+        <v>0.2026867275632058</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1550996863601422</v>
+        <v>0.1544414848828004</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2007458088019214</v>
+        <v>0.1999451014447602</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.2430876936929685</v>
+        <v>0.2433969676215574</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.2404124601191513</v>
+        <v>0.240843491319718</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2271186095767112</v>
+        <v>0.2244198229764744</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2903251036280314</v>
+        <v>0.2897626282607512</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3408594057548477</v>
+        <v>0.3396611554445645</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.3085987346379955</v>
+        <v>0.3082730506620581</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1315106159007011</v>
+        <v>0.1315458765563316</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1606414500622224</v>
+        <v>0.1616268289407285</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1990574410066433</v>
+        <v>0.1981540322572919</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2241494887440406</v>
+        <v>0.2254917476467959</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1728372152099309</v>
+        <v>0.1732065753526561</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2205233315218754</v>
+        <v>0.2200386313508385</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.2644753057483317</v>
+        <v>0.2643077756885175</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2608009543547376</v>
+        <v>0.2606385048168437</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>42653</v>
+        <v>42143</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>70593</v>
+        <v>69513</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>76307</v>
+        <v>74640</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>64648</v>
+        <v>64492</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>28571</v>
+        <v>28345</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>16365</v>
+        <v>16107</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>28661</v>
+        <v>28126</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>63659</v>
+        <v>66166</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>77614</v>
+        <v>74939</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>92588</v>
+        <v>92749</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>108952</v>
+        <v>111658</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>136375</v>
+        <v>136929</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>69421</v>
+        <v>68774</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>103322</v>
+        <v>102585</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>109054</v>
+        <v>107989</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>94961</v>
+        <v>96532</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>52510</v>
+        <v>51661</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>36352</v>
+        <v>36926</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>53581</v>
+        <v>51977</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>88769</v>
+        <v>92192</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>113259</v>
+        <v>113768</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>133264</v>
+        <v>133722</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>151397</v>
+        <v>151340</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>175455</v>
+        <v>175645</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>104196</v>
+        <v>105093</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>102228</v>
+        <v>103980</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>124873</v>
+        <v>125560</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>194913</v>
+        <v>195647</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>56366</v>
+        <v>56329</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>52717</v>
+        <v>52282</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>65928</v>
+        <v>66909</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>150826</v>
+        <v>151808</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>171923</v>
+        <v>170533</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>168367</v>
+        <v>165597</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>203816</v>
+        <v>201834</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>355240</v>
+        <v>360300</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>145609</v>
+        <v>146318</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>141649</v>
+        <v>145007</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>167182</v>
+        <v>166754</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>251748</v>
+        <v>251648</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>89064</v>
+        <v>87734</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>86696</v>
+        <v>87308</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>100327</v>
+        <v>100099</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>188958</v>
+        <v>188999</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>223439</v>
+        <v>221665</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>220690</v>
+        <v>216849</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>255348</v>
+        <v>257250</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>427096</v>
+        <v>425294</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>43868</v>
+        <v>45387</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>68786</v>
+        <v>68677</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>112408</v>
+        <v>112598</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>87698</v>
+        <v>87644</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>17588</v>
+        <v>17712</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>24981</v>
+        <v>23970</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>61240</v>
+        <v>60006</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>89376</v>
+        <v>91299</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>68015</v>
+        <v>69479</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>99712</v>
+        <v>97684</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>181841</v>
+        <v>181397</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>184458</v>
+        <v>185767</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>73262</v>
+        <v>75093</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>99088</v>
+        <v>99721</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>146333</v>
+        <v>145867</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>117773</v>
+        <v>118010</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>36956</v>
+        <v>37858</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>50166</v>
+        <v>48522</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>91184</v>
+        <v>90082</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>118170</v>
+        <v>120071</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>104251</v>
+        <v>105545</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>139528</v>
+        <v>137981</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>226735</v>
+        <v>227842</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>226055</v>
+        <v>229428</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>58774</v>
+        <v>59981</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>93353</v>
+        <v>93834</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>99193</v>
+        <v>101461</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>98269</v>
+        <v>96895</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>55367</v>
+        <v>54143</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>35590</v>
+        <v>37911</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>38060</v>
+        <v>37622</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>63340</v>
+        <v>63245</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>121566</v>
+        <v>121947</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>137928</v>
+        <v>139740</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>145284</v>
+        <v>143504</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>168758</v>
+        <v>170109</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>90683</v>
+        <v>90025</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>130423</v>
+        <v>130404</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>135235</v>
+        <v>137486</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>147485</v>
+        <v>144544</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>83601</v>
+        <v>83766</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>62938</v>
+        <v>65211</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>65252</v>
+        <v>63532</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>93406</v>
+        <v>93415</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>163799</v>
+        <v>165710</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>183604</v>
+        <v>185223</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>193244</v>
+        <v>190955</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>224832</v>
+        <v>225140</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>31903</v>
+        <v>30401</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>29226</v>
+        <v>28847</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>62841</v>
+        <v>62806</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>37680</v>
+        <v>38366</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>14090</v>
+        <v>14764</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>22971</v>
+        <v>23794</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>30287</v>
+        <v>30646</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>43584</v>
+        <v>42897</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>49685</v>
+        <v>51156</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>59185</v>
+        <v>57870</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>100607</v>
+        <v>98964</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>87592</v>
+        <v>85810</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>53985</v>
+        <v>54034</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>53951</v>
+        <v>52406</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>89600</v>
+        <v>91181</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>59280</v>
+        <v>59975</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>32549</v>
+        <v>33406</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>44337</v>
+        <v>45326</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>52441</v>
+        <v>52145</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>61185</v>
+        <v>60160</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>79945</v>
+        <v>82255</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>88964</v>
+        <v>89815</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>134915</v>
+        <v>134741</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>114618</v>
+        <v>111282</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>36286</v>
+        <v>37052</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>67586</v>
+        <v>67193</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>53163</v>
+        <v>51419</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>96730</v>
+        <v>95286</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>26172</v>
+        <v>26197</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>39569</v>
+        <v>40079</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>21762</v>
+        <v>22204</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>84846</v>
+        <v>85732</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>67202</v>
+        <v>68116</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>112466</v>
+        <v>115495</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>79630</v>
+        <v>80226</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>187839</v>
+        <v>187334</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>62348</v>
+        <v>61566</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>99178</v>
+        <v>98603</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>79564</v>
+        <v>80420</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>126367</v>
+        <v>124779</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>48899</v>
+        <v>47912</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>66477</v>
+        <v>65129</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>42993</v>
+        <v>43711</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>110095</v>
+        <v>110303</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>100852</v>
+        <v>101502</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>156052</v>
+        <v>156080</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>117460</v>
+        <v>116895</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>225073</v>
+        <v>226010</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>122518</v>
+        <v>125661</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>157358</v>
+        <v>159829</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>165101</v>
+        <v>170124</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>183809</v>
+        <v>183545</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>52975</v>
+        <v>53005</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>103069</v>
+        <v>102232</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>137665</v>
+        <v>138059</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>154874</v>
+        <v>157046</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>188116</v>
+        <v>188058</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>273173</v>
+        <v>277714</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>320307</v>
+        <v>315549</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>357527</v>
+        <v>353427</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>165374</v>
+        <v>166948</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>207906</v>
+        <v>206375</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>214450</v>
+        <v>217974</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>239032</v>
+        <v>236915</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>83604</v>
+        <v>83485</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>146113</v>
+        <v>145255</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>182505</v>
+        <v>182045</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>197722</v>
+        <v>199685</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>242079</v>
+        <v>243272</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>338527</v>
+        <v>341676</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>384320</v>
+        <v>383558</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>423143</v>
+        <v>420031</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>117535</v>
+        <v>117787</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>209487</v>
+        <v>208699</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>252198</v>
+        <v>251817</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>115959</v>
+        <v>116046</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>58255</v>
+        <v>60315</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>120662</v>
+        <v>119038</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>157337</v>
+        <v>155655</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>32109</v>
+        <v>32796</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>187083</v>
+        <v>185201</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>337833</v>
+        <v>341004</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>423892</v>
+        <v>426197</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>154729</v>
+        <v>153475</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>159010</v>
+        <v>160467</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>260518</v>
+        <v>261422</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>306817</v>
+        <v>307065</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>162225</v>
+        <v>160118</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>91276</v>
+        <v>92086</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>165429</v>
+        <v>165818</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>203266</v>
+        <v>203740</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>52890</v>
+        <v>54164</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>241525</v>
+        <v>242618</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>412407</v>
+        <v>409930</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>498934</v>
+        <v>497714</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>205631</v>
+        <v>204812</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>641494</v>
+        <v>639685</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>889277</v>
+        <v>887621</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1040720</v>
+        <v>1043096</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>966689</v>
+        <v>970147</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>368015</v>
+        <v>368165</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>482741</v>
+        <v>486670</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>610337</v>
+        <v>610825</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>749910</v>
+        <v>757179</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1031461</v>
+        <v>1027083</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1401613</v>
+        <v>1396022</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1683356</v>
+        <v>1685497</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1747168</v>
+        <v>1750301</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>743964</v>
+        <v>735123</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>994572</v>
+        <v>992645</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1153914</v>
+        <v>1149858</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1089869</v>
+        <v>1088718</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>443802</v>
+        <v>443921</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>571290</v>
+        <v>574795</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>704580</v>
+        <v>701382</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>837357</v>
+        <v>842372</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1149421</v>
+        <v>1151877</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1539700</v>
+        <v>1536316</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1831462</v>
+        <v>1830302</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1895339</v>
+        <v>1894159</v>
       </c>
     </row>
     <row r="40">
